--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pros1-Mertk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pros1-Mertk.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.959728</v>
+        <v>22.45812766666667</v>
       </c>
       <c r="H2">
-        <v>71.879184</v>
+        <v>67.37438299999999</v>
       </c>
       <c r="I2">
-        <v>0.1471048789571275</v>
+        <v>0.1517873496957344</v>
       </c>
       <c r="J2">
-        <v>0.1548696879699961</v>
+        <v>0.1542780378440176</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.28467933333333</v>
+        <v>7.270285</v>
       </c>
       <c r="N2">
-        <v>30.854038</v>
+        <v>21.810855</v>
       </c>
       <c r="O2">
-        <v>0.113655682908653</v>
+        <v>0.07247008081099036</v>
       </c>
       <c r="P2">
-        <v>0.11797514492277</v>
+        <v>0.07295896149046807</v>
       </c>
       <c r="Q2">
-        <v>246.418119393888</v>
+        <v>163.2769887030517</v>
       </c>
       <c r="R2">
-        <v>2217.763074544992</v>
+        <v>1469.492898327465</v>
       </c>
       <c r="S2">
-        <v>0.01671930547706707</v>
+        <v>0.01100004149853593</v>
       </c>
       <c r="T2">
-        <v>0.01827077388240446</v>
+        <v>0.01125596542188666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.959728</v>
+        <v>22.45812766666667</v>
       </c>
       <c r="H3">
-        <v>71.879184</v>
+        <v>67.37438299999999</v>
       </c>
       <c r="I3">
-        <v>0.1471048789571275</v>
+        <v>0.1517873496957344</v>
       </c>
       <c r="J3">
-        <v>0.1548696879699961</v>
+        <v>0.1542780378440176</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.307568</v>
       </c>
       <c r="O3">
-        <v>0.01955125827044465</v>
+        <v>0.01763525005644329</v>
       </c>
       <c r="P3">
-        <v>0.02029430001957787</v>
+        <v>0.01775421684844728</v>
       </c>
       <c r="Q3">
-        <v>42.389295207168</v>
+        <v>39.73267991450489</v>
       </c>
       <c r="R3">
-        <v>381.503656864512</v>
+        <v>357.594119230544</v>
       </c>
       <c r="S3">
-        <v>0.002876085481333299</v>
+        <v>0.002676807867289078</v>
       </c>
       <c r="T3">
-        <v>0.00314297191160151</v>
+        <v>0.002739085738835644</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.959728</v>
+        <v>22.45812766666667</v>
       </c>
       <c r="H4">
-        <v>71.879184</v>
+        <v>67.37438299999999</v>
       </c>
       <c r="I4">
-        <v>0.1471048789571275</v>
+        <v>0.1517873496957344</v>
       </c>
       <c r="J4">
-        <v>0.1548696879699961</v>
+        <v>0.1542780378440176</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.039953</v>
+        <v>31.88752633333333</v>
       </c>
       <c r="N4">
-        <v>102.119859</v>
+        <v>95.66257899999999</v>
       </c>
       <c r="O4">
-        <v>0.3761744998557517</v>
+        <v>0.3178543358670601</v>
       </c>
       <c r="P4">
-        <v>0.390470938196739</v>
+        <v>0.3199985703146373</v>
       </c>
       <c r="Q4">
-        <v>815.588015012784</v>
+        <v>716.1341373681952</v>
       </c>
       <c r="R4">
-        <v>7340.292135115057</v>
+        <v>6445.207236313756</v>
       </c>
       <c r="S4">
-        <v>0.05533710426803833</v>
+        <v>0.04824626723055887</v>
       </c>
       <c r="T4">
-        <v>0.0604721123598806</v>
+        <v>0.04936875154103314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.959728</v>
+        <v>22.45812766666667</v>
       </c>
       <c r="H5">
-        <v>71.879184</v>
+        <v>67.37438299999999</v>
       </c>
       <c r="I5">
-        <v>0.1471048789571275</v>
+        <v>0.1517873496957344</v>
       </c>
       <c r="J5">
-        <v>0.1548696879699961</v>
+        <v>0.1542780378440176</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.939396</v>
+        <v>2.0166855</v>
       </c>
       <c r="N5">
-        <v>19.878792</v>
+        <v>4.033371</v>
       </c>
       <c r="O5">
-        <v>0.1098399671459082</v>
+        <v>0.02010228775836882</v>
       </c>
       <c r="P5">
-        <v>0.0760096090855142</v>
+        <v>0.01349193140139489</v>
       </c>
       <c r="Q5">
-        <v>238.145224644288</v>
+        <v>45.2909804225155</v>
       </c>
       <c r="R5">
-        <v>1428.871347865728</v>
+        <v>271.745882535093</v>
       </c>
       <c r="S5">
-        <v>0.01615799507165368</v>
+        <v>0.003051272981663809</v>
       </c>
       <c r="T5">
-        <v>0.01177158444179496</v>
+        <v>0.002081508703333289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.959728</v>
+        <v>22.45812766666667</v>
       </c>
       <c r="H6">
-        <v>71.879184</v>
+        <v>67.37438299999999</v>
       </c>
       <c r="I6">
-        <v>0.1471048789571275</v>
+        <v>0.1517873496957344</v>
       </c>
       <c r="J6">
-        <v>0.1548696879699961</v>
+        <v>0.1542780378440176</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.45657633333334</v>
+        <v>57.37750733333333</v>
       </c>
       <c r="N6">
-        <v>103.369729</v>
+        <v>172.132522</v>
       </c>
       <c r="O6">
-        <v>0.3807785918192424</v>
+        <v>0.5719380455071374</v>
       </c>
       <c r="P6">
-        <v>0.395250007775399</v>
+        <v>0.5757963199450524</v>
       </c>
       <c r="Q6">
-        <v>825.570196757904</v>
+        <v>1288.591384887103</v>
       </c>
       <c r="R6">
-        <v>7430.131770821136</v>
+        <v>11597.32246398392</v>
       </c>
       <c r="S6">
-        <v>0.05601438865903512</v>
+        <v>0.08681296011768673</v>
       </c>
       <c r="T6">
-        <v>0.06121224537431458</v>
+        <v>0.08883272643892885</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>85.25773366666667</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H7">
         <v>255.773201</v>
       </c>
       <c r="I7">
-        <v>0.5234545480313473</v>
+        <v>0.57622993449876</v>
       </c>
       <c r="J7">
-        <v>0.5510846621458181</v>
+        <v>0.5856853276617543</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.28467933333333</v>
+        <v>7.270285</v>
       </c>
       <c r="N7">
-        <v>30.854038</v>
+        <v>21.810855</v>
       </c>
       <c r="O7">
-        <v>0.113655682908653</v>
+        <v>0.07247008081099036</v>
       </c>
       <c r="P7">
-        <v>0.11797514492277</v>
+        <v>0.07295896149046807</v>
       </c>
       <c r="Q7">
-        <v>876.8484514484044</v>
+        <v>619.8480222107618</v>
       </c>
       <c r="R7">
-        <v>7891.636063035638</v>
+        <v>5578.632199896856</v>
       </c>
       <c r="S7">
-        <v>0.05949358412814309</v>
+        <v>0.04175942991883683</v>
       </c>
       <c r="T7">
-        <v>0.06501429288136862</v>
+        <v>0.04273099326640611</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>85.25773366666667</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H8">
         <v>255.773201</v>
       </c>
       <c r="I8">
-        <v>0.5234545480313473</v>
+        <v>0.57622993449876</v>
       </c>
       <c r="J8">
-        <v>0.5510846621458181</v>
+        <v>0.5856853276617543</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>5.307568</v>
       </c>
       <c r="O8">
-        <v>0.01955125827044465</v>
+        <v>0.01763525005644329</v>
       </c>
       <c r="P8">
-        <v>0.02029430001957787</v>
+        <v>0.01775421684844728</v>
       </c>
       <c r="Q8">
         <v>150.8370729872409</v>
@@ -948,10 +948,10 @@
         <v>1357.533656885168</v>
       </c>
       <c r="S8">
-        <v>0.01023419506139975</v>
+        <v>0.01016195898489357</v>
       </c>
       <c r="T8">
-        <v>0.01118387746977494</v>
+        <v>0.01039838431226068</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>85.25773366666667</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H9">
         <v>255.773201</v>
       </c>
       <c r="I9">
-        <v>0.5234545480313473</v>
+        <v>0.57622993449876</v>
       </c>
       <c r="J9">
-        <v>0.5510846621458181</v>
+        <v>0.5856853276617543</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.039953</v>
+        <v>31.88752633333333</v>
       </c>
       <c r="N9">
-        <v>102.119859</v>
+        <v>95.66257899999999</v>
       </c>
       <c r="O9">
-        <v>0.3761744998557517</v>
+        <v>0.3178543358670601</v>
       </c>
       <c r="P9">
-        <v>0.390470938196739</v>
+        <v>0.3199985703146373</v>
       </c>
       <c r="Q9">
-        <v>2902.169246899851</v>
+        <v>2718.658227416153</v>
       </c>
       <c r="R9">
-        <v>26119.52322209867</v>
+        <v>24467.92404674538</v>
       </c>
       <c r="S9">
-        <v>0.1969102528029106</v>
+        <v>0.1831571831368229</v>
       </c>
       <c r="T9">
-        <v>0.2151825450539105</v>
+        <v>0.1874184675060213</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.25773366666667</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H10">
         <v>255.773201</v>
       </c>
       <c r="I10">
-        <v>0.5234545480313473</v>
+        <v>0.57622993449876</v>
       </c>
       <c r="J10">
-        <v>0.5510846621458181</v>
+        <v>0.5856853276617543</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.939396</v>
+        <v>2.0166855</v>
       </c>
       <c r="N10">
-        <v>19.878792</v>
+        <v>4.033371</v>
       </c>
       <c r="O10">
-        <v>0.1098399671459082</v>
+        <v>0.02010228775836882</v>
       </c>
       <c r="P10">
-        <v>0.0760096090855142</v>
+        <v>0.01349193140139489</v>
       </c>
       <c r="Q10">
-        <v>847.410376975532</v>
+        <v>171.9380352484285</v>
       </c>
       <c r="R10">
-        <v>5084.462261853192</v>
+        <v>1031.628211490571</v>
       </c>
       <c r="S10">
-        <v>0.0574962303581394</v>
+        <v>0.01158353995828009</v>
       </c>
       <c r="T10">
-        <v>0.0418877297427263</v>
+        <v>0.007902026263615875</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.25773366666667</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H11">
         <v>255.773201</v>
       </c>
       <c r="I11">
-        <v>0.5234545480313473</v>
+        <v>0.57622993449876</v>
       </c>
       <c r="J11">
-        <v>0.5510846621458181</v>
+        <v>0.5856853276617543</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.45657633333334</v>
+        <v>57.37750733333333</v>
       </c>
       <c r="N11">
-        <v>103.369729</v>
+        <v>172.132522</v>
       </c>
       <c r="O11">
-        <v>0.3807785918192424</v>
+        <v>0.5719380455071374</v>
       </c>
       <c r="P11">
-        <v>0.395250007775399</v>
+        <v>0.5757963199450524</v>
       </c>
       <c r="Q11">
-        <v>2937.689608092503</v>
+        <v>4891.876238682547</v>
       </c>
       <c r="R11">
-        <v>26439.20647283253</v>
+        <v>44026.88614814293</v>
       </c>
       <c r="S11">
-        <v>0.1993202856807544</v>
+        <v>0.3295678224999267</v>
       </c>
       <c r="T11">
-        <v>0.2178162169980377</v>
+        <v>0.3372354563134504</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.737404</v>
+        <v>16.09827966666667</v>
       </c>
       <c r="H12">
-        <v>41.212212</v>
+        <v>48.294839</v>
       </c>
       <c r="I12">
-        <v>0.08434315917965177</v>
+        <v>0.1088031576599699</v>
       </c>
       <c r="J12">
-        <v>0.08879514287465101</v>
+        <v>0.1105885155031808</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.28467933333333</v>
+        <v>7.270285</v>
       </c>
       <c r="N12">
-        <v>30.854038</v>
+        <v>21.810855</v>
       </c>
       <c r="O12">
-        <v>0.113655682908653</v>
+        <v>0.07247008081099036</v>
       </c>
       <c r="P12">
-        <v>0.11797514492277</v>
+        <v>0.07295896149046807</v>
       </c>
       <c r="Q12">
-        <v>141.2847950124507</v>
+        <v>117.0390811863717</v>
       </c>
       <c r="R12">
-        <v>1271.563155112056</v>
+        <v>1053.351730677345</v>
       </c>
       <c r="S12">
-        <v>0.009586079355236549</v>
+        <v>0.00788497362810894</v>
       </c>
       <c r="T12">
-        <v>0.01047561984907502</v>
+        <v>0.008068423243884596</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.737404</v>
+        <v>16.09827966666667</v>
       </c>
       <c r="H13">
-        <v>41.212212</v>
+        <v>48.294839</v>
       </c>
       <c r="I13">
-        <v>0.08434315917965177</v>
+        <v>0.1088031576599699</v>
       </c>
       <c r="J13">
-        <v>0.08879514287465101</v>
+        <v>0.1105885155031808</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>5.307568</v>
       </c>
       <c r="O13">
-        <v>0.01955125827044465</v>
+        <v>0.01763525005644329</v>
       </c>
       <c r="P13">
-        <v>0.02029430001957787</v>
+        <v>0.01775421684844728</v>
       </c>
       <c r="Q13">
-        <v>24.30406862449066</v>
+        <v>28.48090467128355</v>
       </c>
       <c r="R13">
-        <v>218.736617620416</v>
+        <v>256.328142041552</v>
       </c>
       <c r="S13">
-        <v>0.001649014888466597</v>
+        <v>0.001918770892264192</v>
       </c>
       <c r="T13">
-        <v>0.00180203526977945</v>
+        <v>0.001963412485191345</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.737404</v>
+        <v>16.09827966666667</v>
       </c>
       <c r="H14">
-        <v>41.212212</v>
+        <v>48.294839</v>
       </c>
       <c r="I14">
-        <v>0.08434315917965177</v>
+        <v>0.1088031576599699</v>
       </c>
       <c r="J14">
-        <v>0.08879514287465101</v>
+        <v>0.1105885155031808</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.039953</v>
+        <v>31.88752633333333</v>
       </c>
       <c r="N14">
-        <v>102.119859</v>
+        <v>95.66257899999999</v>
       </c>
       <c r="O14">
-        <v>0.3761744998557517</v>
+        <v>0.3178543358670601</v>
       </c>
       <c r="P14">
-        <v>0.390470938196739</v>
+        <v>0.3199985703146373</v>
       </c>
       <c r="Q14">
-        <v>467.620586502012</v>
+        <v>513.3343167921978</v>
       </c>
       <c r="R14">
-        <v>4208.585278518109</v>
+        <v>4620.008851129781</v>
       </c>
       <c r="S14">
-        <v>0.03172774572065955</v>
+        <v>0.03458355541824876</v>
       </c>
       <c r="T14">
-        <v>0.03467192274557847</v>
+        <v>0.03538816685423594</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.737404</v>
+        <v>16.09827966666667</v>
       </c>
       <c r="H15">
-        <v>41.212212</v>
+        <v>48.294839</v>
       </c>
       <c r="I15">
-        <v>0.08434315917965177</v>
+        <v>0.1088031576599699</v>
       </c>
       <c r="J15">
-        <v>0.08879514287465101</v>
+        <v>0.1105885155031808</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.939396</v>
+        <v>2.0166855</v>
       </c>
       <c r="N15">
-        <v>19.878792</v>
+        <v>4.033371</v>
       </c>
       <c r="O15">
-        <v>0.1098399671459082</v>
+        <v>0.02010228775836882</v>
       </c>
       <c r="P15">
-        <v>0.0760096090855142</v>
+        <v>0.01349193140139489</v>
       </c>
       <c r="Q15">
-        <v>136.541498367984</v>
+        <v>32.4651671787115</v>
       </c>
       <c r="R15">
-        <v>819.2489902079041</v>
+        <v>194.791003072269</v>
       </c>
       <c r="S15">
-        <v>0.009264249833275054</v>
+        <v>0.002187192384299885</v>
       </c>
       <c r="T15">
-        <v>0.006749284098594605</v>
+        <v>0.00149205266495101</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.737404</v>
+        <v>16.09827966666667</v>
       </c>
       <c r="H16">
-        <v>41.212212</v>
+        <v>48.294839</v>
       </c>
       <c r="I16">
-        <v>0.08434315917965177</v>
+        <v>0.1088031576599699</v>
       </c>
       <c r="J16">
-        <v>0.08879514287465101</v>
+        <v>0.1105885155031808</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.45657633333334</v>
+        <v>57.37750733333333</v>
       </c>
       <c r="N16">
-        <v>103.369729</v>
+        <v>172.132522</v>
       </c>
       <c r="O16">
-        <v>0.3807785918192424</v>
+        <v>0.5719380455071374</v>
       </c>
       <c r="P16">
-        <v>0.395250007775399</v>
+        <v>0.5757963199450524</v>
       </c>
       <c r="Q16">
-        <v>473.3439095478387</v>
+        <v>923.6791596282176</v>
       </c>
       <c r="R16">
-        <v>4260.095185930549</v>
+        <v>8313.112436653959</v>
       </c>
       <c r="S16">
-        <v>0.03211606938201401</v>
+        <v>0.06222866533704809</v>
       </c>
       <c r="T16">
-        <v>0.03509628091162348</v>
+        <v>0.06367646025491785</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>24.498552</v>
+        <v>7.1659615</v>
       </c>
       <c r="H17">
-        <v>48.99710399999999</v>
+        <v>14.331923</v>
       </c>
       <c r="I17">
-        <v>0.1504130817588953</v>
+        <v>0.04843245707081293</v>
       </c>
       <c r="J17">
-        <v>0.1055683410083432</v>
+        <v>0.03281812553254174</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.28467933333333</v>
+        <v>7.270285</v>
       </c>
       <c r="N17">
-        <v>30.854038</v>
+        <v>21.810855</v>
       </c>
       <c r="O17">
-        <v>0.113655682908653</v>
+        <v>0.07247008081099036</v>
       </c>
       <c r="P17">
-        <v>0.11797514492277</v>
+        <v>0.07295896149046807</v>
       </c>
       <c r="Q17">
-        <v>251.959751450992</v>
+        <v>52.0985824040275</v>
       </c>
       <c r="R17">
-        <v>1511.758508705952</v>
+        <v>312.591494424165</v>
       </c>
       <c r="S17">
-        <v>0.01709530152570231</v>
+        <v>0.003509904077796635</v>
       </c>
       <c r="T17">
-        <v>0.01245444032971569</v>
+        <v>0.00239437635691806</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>24.498552</v>
+        <v>7.1659615</v>
       </c>
       <c r="H18">
-        <v>48.99710399999999</v>
+        <v>14.331923</v>
       </c>
       <c r="I18">
-        <v>0.1504130817588953</v>
+        <v>0.04843245707081293</v>
       </c>
       <c r="J18">
-        <v>0.1055683410083432</v>
+        <v>0.03281812553254174</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>5.307568</v>
       </c>
       <c r="O18">
-        <v>0.01955125827044465</v>
+        <v>0.01763525005644329</v>
       </c>
       <c r="P18">
-        <v>0.02029430001957787</v>
+        <v>0.01775421684844728</v>
       </c>
       <c r="Q18">
-        <v>43.34257688051199</v>
+        <v>12.67794264887733</v>
       </c>
       <c r="R18">
-        <v>260.055461283072</v>
+        <v>76.067655893264</v>
       </c>
       <c r="S18">
-        <v>0.002940765008721671</v>
+        <v>0.0008541184912917411</v>
       </c>
       <c r="T18">
-        <v>0.002142435584992422</v>
+        <v>0.0005826601172643105</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>24.498552</v>
+        <v>7.1659615</v>
       </c>
       <c r="H19">
-        <v>48.99710399999999</v>
+        <v>14.331923</v>
       </c>
       <c r="I19">
-        <v>0.1504130817588953</v>
+        <v>0.04843245707081293</v>
       </c>
       <c r="J19">
-        <v>0.1055683410083432</v>
+        <v>0.03281812553254174</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>34.039953</v>
+        <v>31.88752633333333</v>
       </c>
       <c r="N19">
-        <v>102.119859</v>
+        <v>95.66257899999999</v>
       </c>
       <c r="O19">
-        <v>0.3761744998557517</v>
+        <v>0.3178543358670601</v>
       </c>
       <c r="P19">
-        <v>0.390470938196739</v>
+        <v>0.3199985703146373</v>
       </c>
       <c r="Q19">
-        <v>833.9295586480559</v>
+        <v>228.5047860349028</v>
       </c>
       <c r="R19">
-        <v>5003.577351888336</v>
+        <v>1371.028716209417</v>
       </c>
       <c r="S19">
-        <v>0.05658156580241474</v>
+        <v>0.01539446647665314</v>
       </c>
       <c r="T19">
-        <v>0.04122136915740104</v>
+        <v>0.01050175325081965</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.498552</v>
+        <v>7.1659615</v>
       </c>
       <c r="H20">
-        <v>48.99710399999999</v>
+        <v>14.331923</v>
       </c>
       <c r="I20">
-        <v>0.1504130817588953</v>
+        <v>0.04843245707081293</v>
       </c>
       <c r="J20">
-        <v>0.1055683410083432</v>
+        <v>0.03281812553254174</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.939396</v>
+        <v>2.0166855</v>
       </c>
       <c r="N20">
-        <v>19.878792</v>
+        <v>4.033371</v>
       </c>
       <c r="O20">
-        <v>0.1098399671459082</v>
+        <v>0.02010228775836882</v>
       </c>
       <c r="P20">
-        <v>0.0760096090855142</v>
+        <v>0.01349193140139489</v>
       </c>
       <c r="Q20">
-        <v>243.500809754592</v>
+        <v>14.45149065060825</v>
       </c>
       <c r="R20">
-        <v>974.0032390183679</v>
+        <v>57.805962602433</v>
       </c>
       <c r="S20">
-        <v>0.01652136795871187</v>
+        <v>0.0009736031888823263</v>
       </c>
       <c r="T20">
-        <v>0.008024208331850424</v>
+        <v>0.0004427798984074192</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.498552</v>
+        <v>7.1659615</v>
       </c>
       <c r="H21">
-        <v>48.99710399999999</v>
+        <v>14.331923</v>
       </c>
       <c r="I21">
-        <v>0.1504130817588953</v>
+        <v>0.04843245707081293</v>
       </c>
       <c r="J21">
-        <v>0.1055683410083432</v>
+        <v>0.03281812553254174</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.45657633333334</v>
+        <v>57.37750733333333</v>
       </c>
       <c r="N21">
-        <v>103.369729</v>
+        <v>172.132522</v>
       </c>
       <c r="O21">
-        <v>0.3807785918192424</v>
+        <v>0.5719380455071374</v>
       </c>
       <c r="P21">
-        <v>0.395250007775399</v>
+        <v>0.5757963199450524</v>
       </c>
       <c r="Q21">
-        <v>844.136227044136</v>
+        <v>411.1650085166343</v>
       </c>
       <c r="R21">
-        <v>5064.817362264816</v>
+        <v>2466.990051099806</v>
       </c>
       <c r="S21">
-        <v>0.05727408146334474</v>
+        <v>0.02770036483618908</v>
       </c>
       <c r="T21">
-        <v>0.04172588760438362</v>
+        <v>0.0188965559091323</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.421724</v>
+        <v>16.97773266666666</v>
       </c>
       <c r="H22">
-        <v>46.265172</v>
+        <v>50.933198</v>
       </c>
       <c r="I22">
-        <v>0.09468433207297798</v>
+        <v>0.1147471010747227</v>
       </c>
       <c r="J22">
-        <v>0.09968216600119166</v>
+        <v>0.1166299934585055</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.28467933333333</v>
+        <v>7.270285</v>
       </c>
       <c r="N22">
-        <v>30.854038</v>
+        <v>21.810855</v>
       </c>
       <c r="O22">
-        <v>0.113655682908653</v>
+        <v>0.07247008081099036</v>
       </c>
       <c r="P22">
-        <v>0.11797514492277</v>
+        <v>0.07295896149046807</v>
       </c>
       <c r="Q22">
-        <v>158.6074861071707</v>
+        <v>123.4329551404767</v>
       </c>
       <c r="R22">
-        <v>1427.467374964536</v>
+        <v>1110.89659626429</v>
       </c>
       <c r="S22">
-        <v>0.01076141242250399</v>
+        <v>0.008315731687712035</v>
       </c>
       <c r="T22">
-        <v>0.0117600179802062</v>
+        <v>0.008509203201372642</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.421724</v>
+        <v>16.97773266666666</v>
       </c>
       <c r="H23">
-        <v>46.265172</v>
+        <v>50.933198</v>
       </c>
       <c r="I23">
-        <v>0.09468433207297798</v>
+        <v>0.1147471010747227</v>
       </c>
       <c r="J23">
-        <v>0.09968216600119166</v>
+        <v>0.1166299934585055</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>5.307568</v>
       </c>
       <c r="O23">
-        <v>0.01955125827044465</v>
+        <v>0.01763525005644329</v>
       </c>
       <c r="P23">
-        <v>0.02029430001957787</v>
+        <v>0.01775421684844728</v>
       </c>
       <c r="Q23">
-        <v>27.28394960241067</v>
+        <v>30.03682353805155</v>
       </c>
       <c r="R23">
-        <v>245.555546421696</v>
+        <v>270.331411842464</v>
       </c>
       <c r="S23">
-        <v>0.001851197830523339</v>
+        <v>0.002023593820704708</v>
       </c>
       <c r="T23">
-        <v>0.002022979783429548</v>
+        <v>0.002070674194895294</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.421724</v>
+        <v>16.97773266666666</v>
       </c>
       <c r="H24">
-        <v>46.265172</v>
+        <v>50.933198</v>
       </c>
       <c r="I24">
-        <v>0.09468433207297798</v>
+        <v>0.1147471010747227</v>
       </c>
       <c r="J24">
-        <v>0.09968216600119166</v>
+        <v>0.1166299934585055</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>34.039953</v>
+        <v>31.88752633333333</v>
       </c>
       <c r="N24">
-        <v>102.119859</v>
+        <v>95.66257899999999</v>
       </c>
       <c r="O24">
-        <v>0.3761744998557517</v>
+        <v>0.3178543358670601</v>
       </c>
       <c r="P24">
-        <v>0.390470938196739</v>
+        <v>0.3199985703146373</v>
       </c>
       <c r="Q24">
-        <v>524.954760138972</v>
+        <v>541.3778974886268</v>
       </c>
       <c r="R24">
-        <v>4724.592841250749</v>
+        <v>4872.401077397642</v>
       </c>
       <c r="S24">
-        <v>0.0356178312617284</v>
+        <v>0.03647286360477641</v>
       </c>
       <c r="T24">
-        <v>0.03892298887996839</v>
+        <v>0.03732143116252724</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.421724</v>
+        <v>16.97773266666666</v>
       </c>
       <c r="H25">
-        <v>46.265172</v>
+        <v>50.933198</v>
       </c>
       <c r="I25">
-        <v>0.09468433207297798</v>
+        <v>0.1147471010747227</v>
       </c>
       <c r="J25">
-        <v>0.09968216600119166</v>
+        <v>0.1166299934585055</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.939396</v>
+        <v>2.0166855</v>
       </c>
       <c r="N25">
-        <v>19.878792</v>
+        <v>4.033371</v>
       </c>
       <c r="O25">
-        <v>0.1098399671459082</v>
+        <v>0.02010228775836882</v>
       </c>
       <c r="P25">
-        <v>0.0760096090855142</v>
+        <v>0.01349193140139489</v>
       </c>
       <c r="Q25">
-        <v>153.282621838704</v>
+        <v>34.238747291743</v>
       </c>
       <c r="R25">
-        <v>919.695731032224</v>
+        <v>205.432483750458</v>
       </c>
       <c r="S25">
-        <v>0.01040012392412816</v>
+        <v>0.002306679245242708</v>
       </c>
       <c r="T25">
-        <v>0.007576802470547912</v>
+        <v>0.00157356387108729</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.421724</v>
+        <v>16.97773266666666</v>
       </c>
       <c r="H26">
-        <v>46.265172</v>
+        <v>50.933198</v>
       </c>
       <c r="I26">
-        <v>0.09468433207297798</v>
+        <v>0.1147471010747227</v>
       </c>
       <c r="J26">
-        <v>0.09968216600119166</v>
+        <v>0.1166299934585055</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.45657633333334</v>
+        <v>57.37750733333333</v>
       </c>
       <c r="N26">
-        <v>103.369729</v>
+        <v>172.132522</v>
       </c>
       <c r="O26">
-        <v>0.3807785918192424</v>
+        <v>0.5719380455071374</v>
       </c>
       <c r="P26">
-        <v>0.395250007775399</v>
+        <v>0.5757963199450524</v>
       </c>
       <c r="Q26">
-        <v>531.3798101975987</v>
+        <v>974.1399805850394</v>
       </c>
       <c r="R26">
-        <v>4782.418291778388</v>
+        <v>8767.259825265355</v>
       </c>
       <c r="S26">
-        <v>0.03605376663409408</v>
+        <v>0.06562823271628686</v>
       </c>
       <c r="T26">
-        <v>0.03939937688703962</v>
+        <v>0.06715512102862298</v>
       </c>
     </row>
   </sheetData>
